--- a/DynamicBending/Abaqus.xlsx
+++ b/DynamicBending/Abaqus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander\source\Studying\3 course\Computational mechanical\МКЭ\Finite_element_method\DynamicBending\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1028190B-C80D-4FE2-A51D-19F15A932E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBCB170A-D415-4B13-AB3C-AC81FB0B7F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="3000" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33000" yWindow="3960" windowWidth="21615" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Прогибы" sheetId="1" r:id="rId1"/>
@@ -72,10 +72,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.000000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,11 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -393,7 +388,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1"/>
+      <selection activeCell="C2" sqref="C2:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,34 +442,34 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>-1.9008099999999999E-33</v>
+        <v>2.2381200000000001E-36</v>
       </c>
       <c r="D2" s="1">
-        <v>3.7874799999999999E-33</v>
+        <v>8.13542E-38</v>
       </c>
       <c r="E2" s="1">
-        <v>-3.7479900000000001E-33</v>
+        <v>-7.5225300000000002E-37</v>
       </c>
       <c r="F2" s="1">
-        <v>3.68826E-33</v>
+        <v>-9.2078299999999994E-37</v>
       </c>
       <c r="G2" s="1">
-        <v>3.68826E-33</v>
+        <v>-8.0313400000000003E-37</v>
       </c>
       <c r="H2" s="1">
-        <v>1.4928700000000001E-32</v>
+        <v>-3.5256699999999997E-33</v>
       </c>
       <c r="I2" s="1">
-        <v>-3.5654500000000001E-32</v>
+        <v>-1.9608699999999999E-33</v>
       </c>
       <c r="J2" s="1">
-        <v>4.47451E-32</v>
+        <v>-9.81244E-34</v>
       </c>
       <c r="K2" s="1">
-        <v>-4.40781E-32</v>
+        <v>-4.1503799999999998E-34</v>
       </c>
       <c r="L2" s="1">
-        <v>4.3209699999999997E-32</v>
+        <v>-1.1780299999999999E-34</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -486,34 +481,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1.5327400000000001E-4</v>
+        <v>1.5362199999999999E-4</v>
       </c>
       <c r="D3">
-        <v>3.0677599999999998E-4</v>
+        <v>3.0701399999999998E-4</v>
       </c>
       <c r="E3">
-        <v>4.5984900000000002E-4</v>
+        <v>4.6030099999999998E-4</v>
       </c>
       <c r="F3">
-        <v>6.1351600000000004E-4</v>
+        <v>6.1355800000000005E-4</v>
       </c>
       <c r="G3">
-        <v>6.1351600000000004E-4</v>
+        <v>7.6681700000000004E-4</v>
       </c>
       <c r="H3" s="1">
-        <v>5.7843700000000001E-7</v>
+        <v>3.6211099999999998E-4</v>
       </c>
       <c r="I3" s="1">
-        <v>-1.1910699999999999E-6</v>
+        <v>1.52075E-4</v>
       </c>
       <c r="J3" s="1">
-        <v>1.6968100000000001E-6</v>
+        <v>4.21866E-5</v>
       </c>
       <c r="K3" s="1">
-        <v>-2.0941200000000001E-6</v>
+        <v>-7.9285099999999994E-6</v>
       </c>
       <c r="L3" s="1">
-        <v>2.3977100000000002E-6</v>
+        <v>-2.54215E-5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -525,34 +520,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.0988400000000002E-4</v>
+        <v>3.1057099999999999E-4</v>
       </c>
       <c r="D4">
-        <v>6.2021699999999995E-4</v>
+        <v>6.2068699999999997E-4</v>
       </c>
       <c r="E4">
-        <v>9.2970300000000004E-4</v>
+        <v>9.3059499999999999E-4</v>
       </c>
       <c r="F4">
-        <v>1.24036E-3</v>
+        <v>1.24044E-3</v>
       </c>
       <c r="G4">
-        <v>1.24036E-3</v>
+        <v>1.5502999999999999E-3</v>
       </c>
       <c r="H4" s="1">
-        <v>1.1429000000000001E-6</v>
+        <v>7.1530599999999997E-4</v>
       </c>
       <c r="I4" s="1">
-        <v>-2.3533699999999998E-6</v>
+        <v>3.0040500000000001E-4</v>
       </c>
       <c r="J4" s="1">
-        <v>3.35262E-6</v>
+        <v>8.33344E-5</v>
       </c>
       <c r="K4" s="1">
-        <v>-4.1376400000000002E-6</v>
+        <v>-1.56618E-5</v>
       </c>
       <c r="L4" s="1">
-        <v>4.7374900000000001E-6</v>
+        <v>-5.0216999999999997E-5</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -564,34 +559,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.7316200000000001E-4</v>
+        <v>4.7417200000000003E-4</v>
       </c>
       <c r="D5">
-        <v>9.4698600000000003E-4</v>
+        <v>9.4767500000000004E-4</v>
       </c>
       <c r="E5">
-        <v>1.41956E-3</v>
+        <v>1.4208700000000001E-3</v>
       </c>
       <c r="F5">
-        <v>1.89386E-3</v>
+        <v>1.89398E-3</v>
       </c>
       <c r="G5">
-        <v>1.89386E-3</v>
+        <v>2.3671E-3</v>
       </c>
       <c r="H5" s="1">
-        <v>1.6796800000000001E-6</v>
+        <v>1.0508900000000001E-3</v>
       </c>
       <c r="I5" s="1">
-        <v>-3.45867E-6</v>
+        <v>4.4133900000000001E-4</v>
       </c>
       <c r="J5" s="1">
-        <v>4.9272400000000003E-6</v>
+        <v>1.2243000000000001E-4</v>
       </c>
       <c r="K5" s="1">
-        <v>-6.0809700000000003E-6</v>
+        <v>-2.30094E-5</v>
       </c>
       <c r="L5" s="1">
-        <v>6.9625599999999998E-6</v>
+        <v>-7.37761E-5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -603,34 +598,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.4644500000000005E-4</v>
+        <v>6.4775200000000003E-4</v>
       </c>
       <c r="D6">
-        <v>1.29375E-3</v>
+        <v>1.2946399999999999E-3</v>
       </c>
       <c r="E6">
-        <v>1.93943E-3</v>
+        <v>1.9411299999999999E-3</v>
       </c>
       <c r="F6">
-        <v>2.58735E-3</v>
+        <v>2.5875099999999999E-3</v>
       </c>
       <c r="G6">
-        <v>2.58735E-3</v>
+        <v>3.2339000000000001E-3</v>
       </c>
       <c r="H6" s="1">
-        <v>2.17563E-6</v>
+        <v>1.3605900000000001E-3</v>
       </c>
       <c r="I6" s="1">
-        <v>-4.4799199999999998E-6</v>
+        <v>5.7140499999999998E-4</v>
       </c>
       <c r="J6" s="1">
-        <v>6.3821299999999998E-6</v>
+        <v>1.5851099999999999E-4</v>
       </c>
       <c r="K6" s="1">
-        <v>-7.8765300000000003E-6</v>
+        <v>-2.9790499999999999E-5</v>
       </c>
       <c r="L6" s="1">
-        <v>9.0184300000000003E-6</v>
+        <v>-9.5518499999999997E-5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -642,34 +637,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.3306700000000005E-4</v>
+        <v>8.3463899999999998E-4</v>
       </c>
       <c r="D7">
-        <v>1.66716E-3</v>
+        <v>1.6682400000000001E-3</v>
       </c>
       <c r="E7">
-        <v>2.4993200000000002E-3</v>
+        <v>2.5013600000000002E-3</v>
       </c>
       <c r="F7">
-        <v>3.3341600000000001E-3</v>
+        <v>3.3343499999999998E-3</v>
       </c>
       <c r="G7">
-        <v>3.3341600000000001E-3</v>
+        <v>4.1673500000000002E-3</v>
       </c>
       <c r="H7" s="1">
-        <v>2.61847E-6</v>
+        <v>1.6367899999999999E-3</v>
       </c>
       <c r="I7" s="1">
-        <v>-5.3918099999999996E-6</v>
+        <v>6.8740100000000003E-4</v>
       </c>
       <c r="J7" s="1">
-        <v>7.68122E-6</v>
+        <v>1.9069000000000001E-4</v>
       </c>
       <c r="K7" s="1">
-        <v>-9.47982E-6</v>
+        <v>-3.5837999999999998E-5</v>
       </c>
       <c r="L7" s="1">
-        <v>1.08542E-5</v>
+        <v>-1.1490899999999999E-4</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -681,34 +676,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1.00303E-3</v>
+        <v>1.00483E-3</v>
       </c>
       <c r="D8">
-        <v>2.00724E-3</v>
+        <v>2.0084600000000001E-3</v>
       </c>
       <c r="E8">
-        <v>3.00922E-3</v>
+        <v>3.0115599999999999E-3</v>
       </c>
       <c r="F8">
-        <v>4.0142800000000003E-3</v>
+        <v>4.0144899999999999E-3</v>
       </c>
       <c r="G8">
-        <v>4.0142800000000003E-3</v>
+        <v>5.0174499999999997E-3</v>
       </c>
       <c r="H8" s="1">
-        <v>2.9970799999999999E-6</v>
+        <v>1.87269E-3</v>
       </c>
       <c r="I8" s="1">
-        <v>-6.1714300000000003E-6</v>
+        <v>7.8647099999999996E-4</v>
       </c>
       <c r="J8" s="1">
-        <v>8.7918900000000006E-6</v>
+        <v>2.1817200000000001E-4</v>
       </c>
       <c r="K8" s="1">
-        <v>-1.0850600000000001E-5</v>
+        <v>-4.10031E-5</v>
       </c>
       <c r="L8" s="1">
-        <v>1.2423699999999999E-5</v>
+        <v>-1.3147000000000001E-4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -720,34 +715,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.12633E-3</v>
+        <v>1.12831E-3</v>
       </c>
       <c r="D9">
-        <v>2.2539600000000002E-3</v>
+        <v>2.25531E-3</v>
       </c>
       <c r="E9">
-        <v>3.3791400000000001E-3</v>
+        <v>3.38172E-3</v>
       </c>
       <c r="F9">
-        <v>4.5077099999999998E-3</v>
+        <v>4.5079400000000002E-3</v>
       </c>
       <c r="G9">
-        <v>4.5077099999999998E-3</v>
+        <v>5.6341899999999999E-3</v>
       </c>
       <c r="H9" s="1">
-        <v>3.3018700000000001E-6</v>
+        <v>2.0624800000000002E-3</v>
       </c>
       <c r="I9" s="1">
-        <v>-6.7990399999999999E-6</v>
+        <v>8.6617599999999997E-4</v>
       </c>
       <c r="J9" s="1">
-        <v>9.6860000000000001E-6</v>
+        <v>2.4028299999999999E-4</v>
       </c>
       <c r="K9" s="1">
-        <v>-1.1953999999999999E-5</v>
+        <v>-4.5158599999999998E-5</v>
       </c>
       <c r="L9" s="1">
-        <v>1.36871E-5</v>
+        <v>-1.4479400000000001E-4</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -759,34 +754,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1.2063099999999999E-3</v>
+        <v>1.20842E-3</v>
       </c>
       <c r="D10">
-        <v>2.4139999999999999E-3</v>
+        <v>2.41545E-3</v>
       </c>
       <c r="E10">
-        <v>3.6190800000000002E-3</v>
+        <v>3.6218299999999999E-3</v>
       </c>
       <c r="F10">
-        <v>4.8277800000000003E-3</v>
+        <v>4.8280299999999996E-3</v>
       </c>
       <c r="G10">
-        <v>4.8277800000000003E-3</v>
+        <v>6.0342499999999997E-3</v>
       </c>
       <c r="H10" s="1">
-        <v>3.5251299999999999E-6</v>
+        <v>2.20148E-3</v>
       </c>
       <c r="I10" s="1">
-        <v>-7.2587700000000003E-6</v>
+        <v>9.2455200000000003E-4</v>
       </c>
       <c r="J10" s="1">
-        <v>1.03409E-5</v>
+        <v>2.5647700000000002E-4</v>
       </c>
       <c r="K10" s="1">
-        <v>-1.27623E-5</v>
+        <v>-4.8202099999999997E-5</v>
       </c>
       <c r="L10" s="1">
-        <v>1.46126E-5</v>
+        <v>-1.5455199999999999E-4</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -798,34 +793,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1.2462899999999999E-3</v>
+        <v>1.2484900000000001E-3</v>
       </c>
       <c r="D11">
-        <v>2.4940299999999999E-3</v>
+        <v>2.4955300000000001E-3</v>
       </c>
       <c r="E11">
-        <v>3.7390499999999998E-3</v>
+        <v>3.7418999999999998E-3</v>
       </c>
       <c r="F11">
-        <v>4.9878199999999996E-3</v>
+        <v>4.9880799999999998E-3</v>
       </c>
       <c r="G11">
-        <v>4.9878199999999996E-3</v>
+        <v>6.23428E-3</v>
       </c>
       <c r="H11" s="1">
-        <v>3.66124E-6</v>
+        <v>2.28627E-3</v>
       </c>
       <c r="I11" s="1">
-        <v>-7.5390199999999999E-6</v>
+        <v>9.6016299999999999E-4</v>
       </c>
       <c r="J11" s="1">
-        <v>1.0740199999999999E-5</v>
+        <v>2.6635599999999998E-4</v>
       </c>
       <c r="K11" s="1">
-        <v>-1.32551E-5</v>
+        <v>-5.0058600000000002E-5</v>
       </c>
       <c r="L11" s="1">
-        <v>1.51768E-5</v>
+        <v>-1.60505E-4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -837,34 +832,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1.2496199999999999E-3</v>
+        <v>1.2518500000000001E-3</v>
       </c>
       <c r="D12">
-        <v>2.5006999999999998E-3</v>
+        <v>2.5022199999999999E-3</v>
       </c>
       <c r="E12">
-        <v>3.7490399999999999E-3</v>
+        <v>3.7519300000000001E-3</v>
       </c>
       <c r="F12">
-        <v>5.0011700000000001E-3</v>
+        <v>5.0014300000000003E-3</v>
       </c>
       <c r="G12">
-        <v>5.0011700000000001E-3</v>
+        <v>6.2509599999999998E-3</v>
       </c>
       <c r="H12" s="1">
-        <v>3.7068100000000001E-6</v>
+        <v>2.3147699999999998E-3</v>
       </c>
       <c r="I12" s="1">
-        <v>-7.63286E-6</v>
+        <v>9.7213200000000001E-4</v>
       </c>
       <c r="J12" s="1">
-        <v>1.0873899999999999E-5</v>
+        <v>2.69676E-4</v>
       </c>
       <c r="K12" s="1">
-        <v>-1.34201E-5</v>
+        <v>-5.0682600000000002E-5</v>
       </c>
       <c r="L12" s="1">
-        <v>1.5365700000000001E-5</v>
+        <v>-1.6250600000000001E-4</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -876,34 +871,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1.21963E-3</v>
+        <v>1.22182E-3</v>
       </c>
       <c r="D13">
-        <v>2.4406900000000001E-3</v>
+        <v>2.4421899999999999E-3</v>
       </c>
       <c r="E13">
-        <v>3.6590500000000001E-3</v>
+        <v>3.6619000000000001E-3</v>
       </c>
       <c r="F13">
-        <v>4.8811499999999999E-3</v>
+        <v>4.88142E-3</v>
       </c>
       <c r="G13">
-        <v>4.8811499999999999E-3</v>
+        <v>6.1009499999999999E-3</v>
       </c>
       <c r="H13" s="1">
-        <v>3.6607700000000002E-6</v>
+        <v>2.28627E-3</v>
       </c>
       <c r="I13" s="1">
-        <v>-7.5380599999999996E-6</v>
+        <v>9.6016299999999999E-4</v>
       </c>
       <c r="J13" s="1">
-        <v>1.07388E-5</v>
+        <v>2.6635599999999998E-4</v>
       </c>
       <c r="K13" s="1">
-        <v>-1.3253399999999999E-5</v>
+        <v>-5.0058600000000002E-5</v>
       </c>
       <c r="L13" s="1">
-        <v>1.5174899999999999E-5</v>
+        <v>-1.60505E-4</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -915,34 +910,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1.15964E-3</v>
+        <v>1.16176E-3</v>
       </c>
       <c r="D14">
-        <v>2.3206699999999999E-3</v>
+        <v>2.3221100000000001E-3</v>
       </c>
       <c r="E14">
-        <v>3.4790799999999998E-3</v>
+        <v>3.48183E-3</v>
       </c>
       <c r="F14">
-        <v>4.6411100000000004E-3</v>
+        <v>4.6413599999999998E-3</v>
       </c>
       <c r="G14">
-        <v>4.6411100000000004E-3</v>
+        <v>5.8009200000000002E-3</v>
       </c>
       <c r="H14" s="1">
-        <v>3.52438E-6</v>
+        <v>2.20148E-3</v>
       </c>
       <c r="I14" s="1">
-        <v>-7.2571899999999999E-6</v>
+        <v>9.2455200000000003E-4</v>
       </c>
       <c r="J14" s="1">
-        <v>1.03387E-5</v>
+        <v>2.5647700000000002E-4</v>
       </c>
       <c r="K14" s="1">
-        <v>-1.2759600000000001E-5</v>
+        <v>-4.8201999999999997E-5</v>
       </c>
       <c r="L14" s="1">
-        <v>1.4609399999999999E-5</v>
+        <v>-1.5455199999999999E-4</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -954,34 +949,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1.073E-3</v>
+        <v>1.0749799999999999E-3</v>
       </c>
       <c r="D15">
-        <v>2.14729E-3</v>
+        <v>2.1486500000000002E-3</v>
       </c>
       <c r="E15">
-        <v>3.2191400000000001E-3</v>
+        <v>3.22172E-3</v>
       </c>
       <c r="F15">
-        <v>4.2943699999999996E-3</v>
+        <v>4.2946099999999999E-3</v>
       </c>
       <c r="G15">
-        <v>4.2943699999999996E-3</v>
+        <v>5.3675199999999998E-3</v>
       </c>
       <c r="H15" s="1">
-        <v>3.3011099999999999E-6</v>
+        <v>2.0624800000000002E-3</v>
       </c>
       <c r="I15" s="1">
-        <v>-6.7974499999999996E-6</v>
+        <v>8.6617599999999997E-4</v>
       </c>
       <c r="J15" s="1">
-        <v>9.6837199999999998E-6</v>
+        <v>2.4028299999999999E-4</v>
       </c>
       <c r="K15" s="1">
-        <v>-1.19512E-5</v>
+        <v>-4.5158599999999998E-5</v>
       </c>
       <c r="L15" s="1">
-        <v>1.36839E-5</v>
+        <v>-1.4479400000000001E-4</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -993,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.63028E-4</v>
+        <v>9.6482800000000004E-4</v>
       </c>
       <c r="D16">
-        <v>1.92724E-3</v>
+        <v>1.9284599999999999E-3</v>
       </c>
       <c r="E16">
-        <v>2.8892200000000001E-3</v>
+        <v>2.8915600000000001E-3</v>
       </c>
       <c r="F16">
-        <v>3.8542799999999999E-3</v>
+        <v>3.8544899999999999E-3</v>
       </c>
       <c r="G16">
-        <v>3.8542799999999999E-3</v>
+        <v>4.81745E-3</v>
       </c>
       <c r="H16" s="1">
-        <v>2.9965999999999998E-6</v>
+        <v>1.87269E-3</v>
       </c>
       <c r="I16" s="1">
-        <v>-6.1704299999999998E-6</v>
+        <v>7.8647099999999996E-4</v>
       </c>
       <c r="J16" s="1">
-        <v>8.7904499999999998E-6</v>
+        <v>2.1817200000000001E-4</v>
       </c>
       <c r="K16" s="1">
-        <v>-1.08488E-5</v>
+        <v>-4.10031E-5</v>
       </c>
       <c r="L16" s="1">
-        <v>1.24216E-5</v>
+        <v>-1.3147000000000001E-4</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1032,34 +1027,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.3306700000000005E-4</v>
+        <v>8.3463899999999998E-4</v>
       </c>
       <c r="D17">
-        <v>1.66716E-3</v>
+        <v>1.6682400000000001E-3</v>
       </c>
       <c r="E17">
-        <v>2.4993200000000002E-3</v>
+        <v>2.5013600000000002E-3</v>
       </c>
       <c r="F17">
-        <v>3.3341600000000001E-3</v>
+        <v>3.3343499999999998E-3</v>
       </c>
       <c r="G17">
-        <v>3.3341600000000001E-3</v>
+        <v>4.1673500000000002E-3</v>
       </c>
       <c r="H17" s="1">
-        <v>2.61847E-6</v>
+        <v>1.6367899999999999E-3</v>
       </c>
       <c r="I17" s="1">
-        <v>-5.3918099999999996E-6</v>
+        <v>6.8740100000000003E-4</v>
       </c>
       <c r="J17" s="1">
-        <v>7.68122E-6</v>
+        <v>1.9069000000000001E-4</v>
       </c>
       <c r="K17" s="1">
-        <v>-9.47982E-6</v>
+        <v>-3.5837999999999998E-5</v>
       </c>
       <c r="L17" s="1">
-        <v>1.08542E-5</v>
+        <v>-1.1490899999999999E-4</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1071,34 +1066,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.8644500000000005E-4</v>
+        <v>6.8775200000000002E-4</v>
       </c>
       <c r="D18">
-        <v>1.37375E-3</v>
+        <v>1.3746400000000001E-3</v>
       </c>
       <c r="E18">
-        <v>2.0594300000000001E-3</v>
+        <v>2.06113E-3</v>
       </c>
       <c r="F18">
-        <v>2.74735E-3</v>
+        <v>2.7475099999999999E-3</v>
       </c>
       <c r="G18">
-        <v>2.74735E-3</v>
+        <v>3.4339000000000001E-3</v>
       </c>
       <c r="H18" s="1">
-        <v>2.1761100000000001E-6</v>
+        <v>1.3605900000000001E-3</v>
       </c>
       <c r="I18" s="1">
-        <v>-4.4809200000000003E-6</v>
+        <v>5.7140499999999998E-4</v>
       </c>
       <c r="J18" s="1">
-        <v>6.3835599999999999E-6</v>
+        <v>1.5851099999999999E-4</v>
       </c>
       <c r="K18" s="1">
-        <v>-7.8783000000000004E-6</v>
+        <v>-2.9790499999999999E-5</v>
       </c>
       <c r="L18" s="1">
-        <v>9.0204700000000007E-6</v>
+        <v>-9.5518499999999997E-5</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1110,34 +1105,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.2649499999999998E-4</v>
+        <v>5.2750500000000005E-4</v>
       </c>
       <c r="D19">
-        <v>1.0536499999999999E-3</v>
+        <v>1.05434E-3</v>
       </c>
       <c r="E19">
-        <v>1.57956E-3</v>
+        <v>1.5808700000000001E-3</v>
       </c>
       <c r="F19">
-        <v>2.1072E-3</v>
+        <v>2.1073200000000002E-3</v>
       </c>
       <c r="G19">
-        <v>2.1072E-3</v>
+        <v>2.6337700000000001E-3</v>
       </c>
       <c r="H19" s="1">
-        <v>1.6804400000000001E-6</v>
+        <v>1.0508799999999999E-3</v>
       </c>
       <c r="I19" s="1">
-        <v>-3.4602599999999999E-6</v>
+        <v>4.4133900000000001E-4</v>
       </c>
       <c r="J19" s="1">
-        <v>4.9295199999999997E-6</v>
+        <v>1.2243000000000001E-4</v>
       </c>
       <c r="K19" s="1">
-        <v>-6.0837900000000002E-6</v>
+        <v>-2.30094E-5</v>
       </c>
       <c r="L19" s="1">
-        <v>6.9658000000000003E-6</v>
+        <v>-7.37761E-5</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1149,34 +1144,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.5655000000000002E-4</v>
+        <v>3.5723800000000001E-4</v>
       </c>
       <c r="D20">
-        <v>7.1355099999999999E-4</v>
+        <v>7.1402E-4</v>
       </c>
       <c r="E20">
-        <v>1.0697E-3</v>
+        <v>1.0705999999999999E-3</v>
       </c>
       <c r="F20">
-        <v>1.4270299999999999E-3</v>
+        <v>1.4271100000000001E-3</v>
       </c>
       <c r="G20">
-        <v>1.4270299999999999E-3</v>
+        <v>1.78363E-3</v>
       </c>
       <c r="H20" s="1">
-        <v>1.1436500000000001E-6</v>
+        <v>7.1530400000000005E-4</v>
       </c>
       <c r="I20" s="1">
-        <v>-2.3549399999999999E-6</v>
+        <v>3.0040500000000001E-4</v>
       </c>
       <c r="J20" s="1">
-        <v>3.35486E-6</v>
+        <v>8.33344E-5</v>
       </c>
       <c r="K20" s="1">
-        <v>-4.1404199999999999E-6</v>
+        <v>-1.56618E-5</v>
       </c>
       <c r="L20" s="1">
-        <v>4.7406799999999996E-6</v>
+        <v>-5.0216999999999997E-5</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1188,34 +1183,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1.79941E-4</v>
+        <v>1.8028900000000001E-4</v>
       </c>
       <c r="D21">
-        <v>3.6011000000000002E-4</v>
+        <v>3.6034800000000003E-4</v>
       </c>
       <c r="E21">
-        <v>5.3985000000000003E-4</v>
+        <v>5.4030099999999998E-4</v>
       </c>
       <c r="F21">
-        <v>7.20183E-4</v>
+        <v>7.2022399999999999E-4</v>
       </c>
       <c r="G21">
-        <v>7.20183E-4</v>
+        <v>9.0015099999999997E-4</v>
       </c>
       <c r="H21" s="1">
-        <v>5.7889899999999995E-7</v>
+        <v>3.6211000000000001E-4</v>
       </c>
       <c r="I21" s="1">
-        <v>-1.19203E-6</v>
+        <v>1.52075E-4</v>
       </c>
       <c r="J21" s="1">
-        <v>1.69818E-6</v>
+        <v>4.21866E-5</v>
       </c>
       <c r="K21" s="1">
-        <v>-2.09582E-6</v>
+        <v>-7.9285099999999994E-6</v>
       </c>
       <c r="L21" s="1">
-        <v>2.3996599999999998E-6</v>
+        <v>-2.54215E-5</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1227,34 +1222,34 @@
         <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>1.89919E-33</v>
+        <v>2.2353699999999999E-36</v>
       </c>
       <c r="D22" s="1">
-        <v>-3.7780200000000001E-33</v>
+        <v>8.1354499999999998E-38</v>
       </c>
       <c r="E22" s="1">
-        <v>3.7206100000000002E-33</v>
+        <v>-7.5225300000000002E-37</v>
       </c>
       <c r="F22" s="1">
-        <v>-3.6331899999999999E-33</v>
+        <v>-9.2078299999999994E-37</v>
       </c>
       <c r="G22" s="1">
-        <v>-3.6331899999999999E-33</v>
+        <v>-8.0313400000000003E-37</v>
       </c>
       <c r="H22" s="1">
-        <v>-1.4788E-32</v>
+        <v>-3.5222999999999998E-33</v>
       </c>
       <c r="I22" s="1">
-        <v>3.5414099999999999E-32</v>
+        <v>-1.9608699999999999E-33</v>
       </c>
       <c r="J22" s="1">
-        <v>-4.4311399999999998E-32</v>
+        <v>-9.81244E-34</v>
       </c>
       <c r="K22" s="1">
-        <v>4.3341300000000001E-32</v>
+        <v>-4.1503799999999998E-34</v>
       </c>
       <c r="L22" s="1">
-        <v>-4.2075899999999999E-32</v>
+        <v>-1.1780299999999999E-34</v>
       </c>
     </row>
   </sheetData>
@@ -1266,13 +1261,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EB24D8C-C53A-4BE3-928F-75FF488E2BC7}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="15.7109375" customWidth="1"/>
+    <col min="1" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="2" customWidth="1"/>
+    <col min="11" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -1297,13 +1296,13 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="K1" t="s">
@@ -1335,13 +1334,13 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>0</v>
       </c>
       <c r="K2" s="1">
@@ -1360,34 +1359,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.0585400000000002E-3</v>
+        <v>4.2148700000000001E-4</v>
       </c>
       <c r="D3" s="1">
-        <v>3.1024500000000001E-5</v>
+        <v>9.2990800000000001E-4</v>
       </c>
       <c r="E3">
-        <v>3.0008299999999999E-3</v>
-      </c>
-      <c r="F3">
-        <v>1.1002600000000001E-4</v>
+        <v>1.2423600000000001E-3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.41862E-3</v>
       </c>
       <c r="G3">
-        <v>2.90523E-3</v>
-      </c>
-      <c r="H3" s="1">
-        <v>-1.8133E-2</v>
+        <v>1.5082800000000001E-3</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.38783800000000002</v>
       </c>
       <c r="I3" s="1">
-        <v>1.7894400000000001E-2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>-1.7507999999999999E-2</v>
+        <v>0.29910500000000001</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.206312</v>
       </c>
       <c r="K3" s="1">
-        <v>1.7004399999999999E-2</v>
+        <v>0.130304</v>
       </c>
       <c r="L3" s="1">
-        <v>-1.64102E-2</v>
+        <v>7.5681200000000004E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1399,34 +1398,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.1836199999999999E-3</v>
+        <v>9.0367799999999999E-4</v>
       </c>
       <c r="D4" s="1">
-        <v>6.2514999999999994E-5</v>
+        <v>1.9080099999999999E-3</v>
       </c>
       <c r="E4">
-        <v>6.06735E-3</v>
+        <v>2.5252299999999998E-3</v>
       </c>
       <c r="F4">
-        <v>2.2169999999999999E-4</v>
+        <v>2.87339E-3</v>
       </c>
       <c r="G4">
-        <v>5.87471E-3</v>
-      </c>
-      <c r="H4" s="1">
-        <v>-3.6662E-2</v>
+        <v>3.0505200000000001E-3</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.76613200000000004</v>
       </c>
       <c r="I4" s="1">
-        <v>3.6181199999999997E-2</v>
-      </c>
-      <c r="J4" s="1">
-        <v>-3.5402599999999999E-2</v>
+        <v>0.59084400000000004</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.40754400000000002</v>
       </c>
       <c r="K4" s="1">
-        <v>3.4387899999999999E-2</v>
+        <v>0.25740000000000002</v>
       </c>
       <c r="L4" s="1">
-        <v>-3.3190499999999998E-2</v>
+        <v>0.14949899999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1438,34 +1437,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.4417900000000003E-3</v>
+        <v>1.5066000000000001E-3</v>
       </c>
       <c r="D5" s="1">
-        <v>9.4939700000000002E-5</v>
+        <v>2.98212E-3</v>
       </c>
       <c r="E5">
-        <v>9.2652199999999994E-3</v>
+        <v>3.8889100000000002E-3</v>
       </c>
       <c r="F5">
-        <v>3.3667700000000002E-4</v>
+        <v>4.4004100000000004E-3</v>
       </c>
       <c r="G5">
-        <v>8.9726700000000003E-3</v>
-      </c>
-      <c r="H5" s="1">
-        <v>-5.5982900000000002E-2</v>
+        <v>4.6606299999999998E-3</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1.12558</v>
       </c>
       <c r="I5" s="1">
-        <v>5.5252700000000002E-2</v>
-      </c>
-      <c r="J5" s="1">
-        <v>-5.4070300000000002E-2</v>
+        <v>0.868035</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.59874099999999997</v>
       </c>
       <c r="K5" s="1">
-        <v>5.2529199999999998E-2</v>
+        <v>0.37815799999999999</v>
       </c>
       <c r="L5" s="1">
-        <v>-5.0710699999999997E-2</v>
+        <v>0.219635</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1477,34 +1476,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1.2899600000000001E-2</v>
+        <v>2.28896E-3</v>
       </c>
       <c r="D6">
-        <v>1.2877099999999999E-4</v>
+        <v>4.1993600000000001E-3</v>
       </c>
       <c r="E6">
-        <v>1.2660100000000001E-2</v>
+        <v>5.3733799999999996E-3</v>
       </c>
       <c r="F6">
-        <v>4.5662799999999999E-4</v>
+        <v>6.0356300000000002E-3</v>
       </c>
       <c r="G6">
-        <v>1.22633E-2</v>
-      </c>
-      <c r="H6" s="1">
-        <v>-7.6491699999999996E-2</v>
+        <v>6.3725400000000003E-3</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1.45733</v>
       </c>
       <c r="I6" s="1">
-        <v>7.5501200000000004E-2</v>
-      </c>
-      <c r="J6" s="1">
-        <v>-7.3897500000000005E-2</v>
+        <v>1.12385</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.77519499999999997</v>
       </c>
       <c r="K6" s="1">
-        <v>7.1807200000000002E-2</v>
+        <v>0.48960399999999998</v>
       </c>
       <c r="L6" s="1">
-        <v>-6.9340399999999996E-2</v>
+        <v>0.28436400000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1516,34 +1515,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1.6623599999999999E-2</v>
+        <v>3.3075100000000001E-3</v>
       </c>
       <c r="D7">
-        <v>1.6448799999999999E-4</v>
+        <v>5.6057600000000004E-3</v>
       </c>
       <c r="E7">
-        <v>1.6317700000000001E-2</v>
+        <v>7.0181100000000001E-3</v>
       </c>
       <c r="F7">
-        <v>5.8324899999999999E-4</v>
+        <v>7.8147900000000003E-3</v>
       </c>
       <c r="G7">
-        <v>1.58108E-2</v>
-      </c>
-      <c r="H7" s="1">
-        <v>-9.85843E-2</v>
+        <v>8.2200999999999993E-3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1.7532000000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>9.73189E-2</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-9.5270300000000002E-2</v>
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.932562</v>
       </c>
       <c r="K7" s="1">
-        <v>9.2600199999999994E-2</v>
+        <v>0.58899500000000005</v>
       </c>
       <c r="L7" s="1">
-        <v>-8.9448899999999998E-2</v>
+        <v>0.34209000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1555,34 +1554,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.0015100000000001E-2</v>
+        <v>4.2831500000000003E-3</v>
       </c>
       <c r="D8">
-        <v>1.96823E-4</v>
+        <v>6.9126600000000002E-3</v>
       </c>
       <c r="E8">
-        <v>1.9649099999999999E-2</v>
+        <v>8.5285599999999993E-3</v>
       </c>
       <c r="F8">
-        <v>6.9787199999999999E-4</v>
+        <v>9.4400600000000001E-3</v>
       </c>
       <c r="G8">
-        <v>1.90426E-2</v>
-      </c>
-      <c r="H8" s="1">
-        <v>-0.11870600000000001</v>
+        <v>9.9037799999999992E-3</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2.0059100000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>0.117192</v>
-      </c>
-      <c r="J8" s="1">
-        <v>-0.11473999999999999</v>
+        <v>1.5468500000000001</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.0669599999999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0.11154500000000001</v>
+        <v>0.67388199999999998</v>
       </c>
       <c r="L8" s="1">
-        <v>-0.10777399999999999</v>
+        <v>0.39139299999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -1594,34 +1593,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.2475499999999999E-2</v>
+        <v>4.9337000000000001E-3</v>
       </c>
       <c r="D9">
-        <v>2.2051699999999999E-4</v>
+        <v>7.82973E-3</v>
       </c>
       <c r="E9">
-        <v>2.2065499999999998E-2</v>
+        <v>9.6093900000000006E-3</v>
       </c>
       <c r="F9">
-        <v>7.81874E-4</v>
+        <v>1.0613300000000001E-2</v>
       </c>
       <c r="G9">
-        <v>2.1385999999999999E-2</v>
-      </c>
-      <c r="H9" s="1">
-        <v>-0.133302</v>
+        <v>1.1124E-2</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2.2092299999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>0.131605</v>
-      </c>
-      <c r="J9" s="1">
-        <v>-0.128859</v>
+        <v>1.7036199999999999</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.1751</v>
       </c>
       <c r="K9" s="1">
-        <v>0.125279</v>
+        <v>0.74217599999999995</v>
       </c>
       <c r="L9" s="1">
-        <v>-0.12105399999999999</v>
+        <v>0.431058</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -1633,34 +1632,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.40714E-2</v>
+        <v>5.30686E-3</v>
       </c>
       <c r="D10">
-        <v>2.3608799999999999E-4</v>
+        <v>8.3980900000000004E-3</v>
       </c>
       <c r="E10">
-        <v>2.3632500000000001E-2</v>
+        <v>1.02977E-2</v>
       </c>
       <c r="F10">
-        <v>8.37078E-4</v>
+        <v>1.1369199999999999E-2</v>
       </c>
       <c r="G10">
-        <v>2.2904999999999998E-2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>-0.14276800000000001</v>
+        <v>1.19144E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2.3581500000000002</v>
       </c>
       <c r="I10" s="1">
-        <v>0.14095199999999999</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-0.13801099999999999</v>
+        <v>1.81843</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.2542899999999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0.13417899999999999</v>
+        <v>0.79219600000000001</v>
       </c>
       <c r="L10" s="1">
-        <v>-0.12965499999999999</v>
+        <v>0.46011000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -1672,34 +1671,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.48694E-2</v>
+        <v>5.4464800000000001E-3</v>
       </c>
       <c r="D11">
-        <v>2.4406499999999999E-4</v>
+        <v>8.6567899999999993E-3</v>
       </c>
       <c r="E11">
-        <v>2.44155E-2</v>
+        <v>1.0629599999999999E-2</v>
       </c>
       <c r="F11">
-        <v>8.6536600000000001E-4</v>
+        <v>1.17424E-2</v>
       </c>
       <c r="G11">
-        <v>2.3663500000000001E-2</v>
-      </c>
-      <c r="H11" s="1">
-        <v>-0.14749899999999999</v>
+        <v>1.23085E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2.4489899999999998</v>
       </c>
       <c r="I11" s="1">
-        <v>0.145622</v>
-      </c>
-      <c r="J11" s="1">
-        <v>-0.14258199999999999</v>
+        <v>1.8884700000000001</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.3026</v>
       </c>
       <c r="K11" s="1">
-        <v>0.13861999999999999</v>
+        <v>0.82270900000000002</v>
       </c>
       <c r="L11" s="1">
-        <v>-0.13394400000000001</v>
+        <v>0.47783199999999998</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1711,34 +1710,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.4935800000000001E-2</v>
+        <v>5.3923E-3</v>
       </c>
       <c r="D12">
-        <v>2.4499800000000001E-4</v>
+        <v>8.6426300000000001E-3</v>
       </c>
       <c r="E12">
-        <v>2.4480200000000001E-2</v>
+        <v>1.064E-2</v>
       </c>
       <c r="F12">
-        <v>8.6868299999999998E-4</v>
+        <v>1.17667E-2</v>
       </c>
       <c r="G12">
-        <v>2.3725300000000001E-2</v>
-      </c>
-      <c r="H12" s="1">
-        <v>-0.14789099999999999</v>
+        <v>1.2339899999999999E-2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2.4795199999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>0.146006</v>
-      </c>
-      <c r="J12" s="1">
-        <v>-0.142955</v>
+        <v>1.91201</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.31884</v>
       </c>
       <c r="K12" s="1">
-        <v>0.13897799999999999</v>
+        <v>0.83296400000000004</v>
       </c>
       <c r="L12" s="1">
-        <v>-0.13428399999999999</v>
+        <v>0.483788</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1750,34 +1749,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.43372E-2</v>
+        <v>5.1798199999999999E-3</v>
       </c>
       <c r="D13">
-        <v>2.3945499999999999E-4</v>
+        <v>8.3901199999999992E-3</v>
       </c>
       <c r="E13">
-        <v>2.3892E-2</v>
+        <v>1.03629E-2</v>
       </c>
       <c r="F13">
-        <v>8.4903699999999997E-4</v>
+        <v>1.14757E-2</v>
       </c>
       <c r="G13">
-        <v>2.31542E-2</v>
-      </c>
-      <c r="H13" s="1">
-        <v>-0.144339</v>
+        <v>1.20418E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2.4489800000000002</v>
       </c>
       <c r="I13" s="1">
-        <v>0.14249700000000001</v>
-      </c>
-      <c r="J13" s="1">
-        <v>-0.139515</v>
+        <v>1.8884700000000001</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.3026</v>
       </c>
       <c r="K13" s="1">
-        <v>0.135627</v>
+        <v>0.82270900000000002</v>
       </c>
       <c r="L13" s="1">
-        <v>-0.13103999999999999</v>
+        <v>0.47783199999999998</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1789,34 +1788,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.31402E-2</v>
+        <v>4.8402100000000002E-3</v>
       </c>
       <c r="D14">
-        <v>2.2802099999999999E-4</v>
+        <v>7.9314199999999998E-3</v>
       </c>
       <c r="E14">
-        <v>2.2716199999999999E-2</v>
+        <v>9.8310299999999993E-3</v>
       </c>
       <c r="F14">
-        <v>8.0850400000000004E-4</v>
+        <v>1.09026E-2</v>
       </c>
       <c r="G14">
-        <v>2.2013600000000001E-2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>-0.137237</v>
+        <v>1.14477E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2.3581300000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>0.13548299999999999</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-0.13264300000000001</v>
+        <v>1.81843</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.2542899999999999</v>
       </c>
       <c r="K14" s="1">
-        <v>0.128942</v>
+        <v>0.79219600000000001</v>
       </c>
       <c r="L14" s="1">
-        <v>-0.124573</v>
+        <v>0.46011000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1828,34 +1827,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.1411300000000001E-2</v>
+        <v>4.4003799999999997E-3</v>
       </c>
       <c r="D15">
-        <v>2.1130000000000001E-4</v>
+        <v>7.2963899999999998E-3</v>
       </c>
       <c r="E15">
-        <v>2.10184E-2</v>
+        <v>9.0760600000000004E-3</v>
       </c>
       <c r="F15">
-        <v>7.49221E-4</v>
+        <v>1.0079899999999999E-2</v>
       </c>
       <c r="G15">
-        <v>2.0367300000000001E-2</v>
-      </c>
-      <c r="H15" s="1">
-        <v>-0.12698100000000001</v>
+        <v>1.05907E-2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2.2092100000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>0.125356</v>
-      </c>
-      <c r="J15" s="1">
-        <v>-0.122724</v>
+        <v>1.7036199999999999</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.1751</v>
       </c>
       <c r="K15" s="1">
-        <v>0.119294</v>
+        <v>0.74217599999999995</v>
       </c>
       <c r="L15" s="1">
-        <v>-0.115246</v>
+        <v>0.431058</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1867,34 +1866,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1.9216899999999999E-2</v>
+        <v>3.8831600000000001E-3</v>
       </c>
       <c r="D16">
-        <v>1.8991E-4</v>
+        <v>6.51266E-3</v>
       </c>
       <c r="E16">
-        <v>1.88638E-2</v>
+        <v>8.12856E-3</v>
       </c>
       <c r="F16">
-        <v>6.7338499999999998E-4</v>
+        <v>9.0400600000000008E-3</v>
       </c>
       <c r="G16">
-        <v>1.8278599999999999E-2</v>
-      </c>
-      <c r="H16" s="1">
-        <v>-0.113965</v>
+        <v>9.5037799999999999E-3</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2.0059</v>
       </c>
       <c r="I16" s="1">
-        <v>0.11250499999999999</v>
-      </c>
-      <c r="J16" s="1">
-        <v>-0.110139</v>
+        <v>1.5468500000000001</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.0669599999999999</v>
       </c>
       <c r="K16" s="1">
-        <v>0.107056</v>
+        <v>0.67388199999999998</v>
       </c>
       <c r="L16" s="1">
-        <v>-0.103418</v>
+        <v>0.39139299999999999</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1906,34 +1905,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1.6623599999999999E-2</v>
+        <v>3.3075100000000001E-3</v>
       </c>
       <c r="D17">
-        <v>1.6448799999999999E-4</v>
+        <v>5.6057600000000004E-3</v>
       </c>
       <c r="E17">
-        <v>1.6317700000000001E-2</v>
+        <v>7.0181100000000001E-3</v>
       </c>
       <c r="F17">
-        <v>5.8324899999999999E-4</v>
+        <v>7.8147900000000003E-3</v>
       </c>
       <c r="G17">
-        <v>1.58108E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <v>-9.85843E-2</v>
+        <v>8.2200999999999993E-3</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1.7532000000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>9.73189E-2</v>
-      </c>
-      <c r="J17" s="1">
-        <v>-9.5270300000000002E-2</v>
+        <v>1.3520000000000001</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.932562</v>
       </c>
       <c r="K17" s="1">
-        <v>9.2600199999999994E-2</v>
+        <v>0.58899500000000005</v>
       </c>
       <c r="L17" s="1">
-        <v>-8.9448899999999998E-2</v>
+        <v>0.34209000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1945,34 +1944,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1.36978E-2</v>
+        <v>2.6889499999999998E-3</v>
       </c>
       <c r="D18">
-        <v>1.3568400000000001E-4</v>
+        <v>4.5993600000000003E-3</v>
       </c>
       <c r="E18">
-        <v>1.3445500000000001E-2</v>
+        <v>5.7733799999999998E-3</v>
       </c>
       <c r="F18">
-        <v>4.81115E-4</v>
+        <v>6.4356300000000003E-3</v>
       </c>
       <c r="G18">
-        <v>1.30274E-2</v>
-      </c>
-      <c r="H18" s="1">
-        <v>-8.1232200000000004E-2</v>
+        <v>6.7725399999999996E-3</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1.4573400000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>8.0188400000000007E-2</v>
-      </c>
-      <c r="J18" s="1">
-        <v>-7.8498600000000002E-2</v>
+        <v>1.12385</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.77519499999999997</v>
       </c>
       <c r="K18" s="1">
-        <v>7.6296000000000003E-2</v>
+        <v>0.48960399999999998</v>
       </c>
       <c r="L18" s="1">
-        <v>-7.3696600000000001E-2</v>
+        <v>0.28436400000000001</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1984,34 +1983,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1.0506E-2</v>
+        <v>2.0399200000000002E-3</v>
       </c>
       <c r="D19">
-        <v>1.04157E-4</v>
+        <v>3.5154600000000002E-3</v>
       </c>
       <c r="E19">
-        <v>1.03123E-2</v>
+        <v>4.42224E-3</v>
       </c>
       <c r="F19">
-        <v>3.6933000000000002E-4</v>
+        <v>4.9337399999999998E-3</v>
       </c>
       <c r="G19">
-        <v>9.9913999999999992E-3</v>
-      </c>
-      <c r="H19" s="1">
-        <v>-6.2303499999999998E-2</v>
+        <v>5.19397E-3</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1.1255999999999999</v>
       </c>
       <c r="I19" s="1">
-        <v>6.1502300000000003E-2</v>
-      </c>
-      <c r="J19" s="1">
-        <v>-6.0205099999999998E-2</v>
+        <v>0.868035</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.59874099999999997</v>
       </c>
       <c r="K19" s="1">
-        <v>5.8514299999999998E-2</v>
+        <v>0.37815799999999999</v>
       </c>
       <c r="L19" s="1">
-        <v>-5.6518899999999997E-2</v>
+        <v>0.219635</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2023,34 +2022,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>7.1148399999999999E-3</v>
+        <v>1.3703299999999999E-3</v>
       </c>
       <c r="D20" s="1">
-        <v>7.0581199999999994E-5</v>
+        <v>2.3746700000000002E-3</v>
       </c>
       <c r="E20">
-        <v>6.9835899999999996E-3</v>
+        <v>2.9918900000000001E-3</v>
       </c>
       <c r="F20">
-        <v>2.5027399999999998E-4</v>
+        <v>3.3400600000000002E-3</v>
       </c>
       <c r="G20">
-        <v>6.7660999999999997E-3</v>
-      </c>
-      <c r="H20" s="1">
-        <v>-4.2192500000000001E-2</v>
+        <v>3.51718E-3</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.766154</v>
       </c>
       <c r="I20" s="1">
-        <v>4.1649600000000002E-2</v>
-      </c>
-      <c r="J20" s="1">
-        <v>-4.0770500000000001E-2</v>
+        <v>0.59084400000000004</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.40754400000000002</v>
       </c>
       <c r="K20" s="1">
-        <v>3.9624800000000002E-2</v>
+        <v>0.25740000000000002</v>
       </c>
       <c r="L20" s="1">
-        <v>-3.82727E-2</v>
+        <v>0.14949899999999999</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2062,34 +2061,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.5906599999999999E-3</v>
+        <v>6.8814400000000002E-4</v>
       </c>
       <c r="D21" s="1">
-        <v>3.5633999999999998E-5</v>
+        <v>1.19658E-3</v>
       </c>
       <c r="E21">
-        <v>3.5244E-3</v>
+        <v>1.50903E-3</v>
       </c>
       <c r="F21">
-        <v>1.2635500000000001E-4</v>
+        <v>1.6852799999999999E-3</v>
       </c>
       <c r="G21">
-        <v>3.4145999999999998E-3</v>
-      </c>
-      <c r="H21" s="1">
-        <v>-2.1293300000000001E-2</v>
+        <v>1.77495E-3</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.38784999999999997</v>
       </c>
       <c r="I21" s="1">
-        <v>2.1019199999999998E-2</v>
-      </c>
-      <c r="J21" s="1">
-        <v>-2.0575400000000001E-2</v>
+        <v>0.29910500000000001</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.206312</v>
       </c>
       <c r="K21" s="1">
-        <v>1.9997000000000001E-2</v>
+        <v>0.130304</v>
       </c>
       <c r="L21" s="1">
-        <v>-1.93143E-2</v>
+        <v>7.5681200000000004E-2</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2115,13 +2114,13 @@
       <c r="G22" s="1">
         <v>0</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <v>0</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <v>0</v>
       </c>
       <c r="K22" s="1">
@@ -2140,13 +2139,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B2236D1-99CD-4723-A802-2453F9534A3B}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="15.7109375" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="12" width="15.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2156,34 +2156,34 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2194,34 +2194,34 @@
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
         <v>0</v>
       </c>
     </row>
@@ -2233,35 +2233,35 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>5.5609800000000001E-2</v>
-      </c>
-      <c r="D3">
-        <v>-0.100545</v>
-      </c>
-      <c r="E3">
-        <v>0.13625999999999999</v>
-      </c>
-      <c r="F3">
-        <v>-0.164046</v>
-      </c>
-      <c r="G3">
-        <v>0.18504100000000001</v>
-      </c>
-      <c r="H3" s="1">
-        <v>-0.53391100000000002</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1.09188</v>
-      </c>
-      <c r="J3" s="1">
-        <v>-1.53704</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1.88507</v>
-      </c>
-      <c r="L3" s="1">
-        <v>-2.1498699999999999</v>
+      <c r="C3" s="2">
+        <v>0.39899099999999998</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.44528499999999999</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.37496499999999999</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.27421499999999999</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.181779</v>
+      </c>
+      <c r="H3" s="2">
+        <v>415.74799999999999</v>
+      </c>
+      <c r="I3" s="2">
+        <v>168.13300000000001</v>
+      </c>
+      <c r="J3" s="2">
+        <v>40.796199999999999</v>
+      </c>
+      <c r="K3" s="2">
+        <v>15.6798</v>
+      </c>
+      <c r="L3" s="2">
+        <v>34.061799999999998</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2272,35 +2272,35 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0.112429</v>
-      </c>
-      <c r="D4">
-        <v>-0.20327999999999999</v>
-      </c>
-      <c r="E4">
-        <v>0.27549899999999999</v>
-      </c>
-      <c r="F4">
-        <v>-0.33169300000000002</v>
-      </c>
-      <c r="G4">
-        <v>0.37416700000000003</v>
-      </c>
-      <c r="H4" s="1">
-        <v>-1.0795300000000001</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2.2076699999999998</v>
-      </c>
-      <c r="J4" s="1">
-        <v>-3.1078000000000001</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3.8116599999999998</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-4.3473300000000004</v>
+      <c r="C4" s="2">
+        <v>0.78798299999999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.879606</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.74069700000000005</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.54167900000000002</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.35908200000000001</v>
+      </c>
+      <c r="H4" s="2">
+        <v>821.46600000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>332.12599999999998</v>
+      </c>
+      <c r="J4" s="2">
+        <v>80.587800000000001</v>
+      </c>
+      <c r="K4" s="2">
+        <v>30.973500000000001</v>
+      </c>
+      <c r="L4" s="2">
+        <v>67.284899999999993</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2311,35 +2311,35 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0.17166899999999999</v>
-      </c>
-      <c r="D5">
-        <v>-0.31039899999999998</v>
-      </c>
-      <c r="E5">
-        <v>0.42069499999999999</v>
-      </c>
-      <c r="F5">
-        <v>-0.50654200000000005</v>
-      </c>
-      <c r="G5">
-        <v>0.57146200000000003</v>
-      </c>
-      <c r="H5" s="1">
-        <v>-1.6485700000000001</v>
-      </c>
-      <c r="I5" s="3">
-        <v>3.3713000000000002</v>
-      </c>
-      <c r="J5" s="1">
-        <v>-4.7460199999999997</v>
-      </c>
-      <c r="K5" s="1">
-        <v>5.8212799999999998</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-6.6399600000000003</v>
+      <c r="C5" s="2">
+        <v>1.1576500000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.29227</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.08819</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.79580399999999996</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.52754299999999998</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1206.9000000000001</v>
+      </c>
+      <c r="I5" s="2">
+        <v>487.94099999999997</v>
+      </c>
+      <c r="J5" s="2">
+        <v>118.395</v>
+      </c>
+      <c r="K5" s="2">
+        <v>45.5045</v>
+      </c>
+      <c r="L5" s="2">
+        <v>98.851200000000006</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2350,35 +2350,35 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0.234538</v>
-      </c>
-      <c r="D6">
-        <v>-0.424091</v>
-      </c>
-      <c r="E6">
-        <v>0.57482599999999995</v>
-      </c>
-      <c r="F6">
-        <v>-0.69219399999999998</v>
-      </c>
-      <c r="G6">
-        <v>0.78100800000000004</v>
-      </c>
-      <c r="H6" s="1">
-        <v>-2.2527300000000001</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4.6066500000000001</v>
-      </c>
-      <c r="J6" s="1">
-        <v>-6.4854200000000004</v>
-      </c>
-      <c r="K6" s="1">
-        <v>7.9554299999999998</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-9.07531</v>
+      <c r="C6" s="2">
+        <v>1.4993099999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.6731100000000001</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.40889</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.03033</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.68301500000000004</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1562.13</v>
+      </c>
+      <c r="I6" s="2">
+        <v>631.74099999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>153.28700000000001</v>
+      </c>
+      <c r="K6" s="2">
+        <v>58.914999999999999</v>
+      </c>
+      <c r="L6" s="2">
+        <v>127.983</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2389,35 +2389,35 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7">
-        <v>0.30224600000000001</v>
-      </c>
-      <c r="D7">
-        <v>-0.54654800000000003</v>
-      </c>
-      <c r="E7">
-        <v>0.74087000000000003</v>
-      </c>
-      <c r="F7">
-        <v>-0.89224700000000001</v>
-      </c>
-      <c r="G7">
-        <v>1.0068900000000001</v>
-      </c>
-      <c r="H7" s="1">
-        <v>-2.9037299999999999</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5.9376499999999997</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-8.3597000000000001</v>
+      <c r="C7" s="2">
+        <v>1.8038099999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.01275</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.6949000000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.23949</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.82166799999999995</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1879.16</v>
+      </c>
+      <c r="I7" s="2">
+        <v>759.98500000000001</v>
+      </c>
+      <c r="J7" s="2">
+        <v>184.405</v>
       </c>
       <c r="K7" s="2">
-        <v>10.255599999999999</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-11.700900000000001</v>
+        <v>70.874899999999997</v>
+      </c>
+      <c r="L7" s="2">
+        <v>153.964</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2428,35 +2428,35 @@
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
-        <v>0.36391000000000001</v>
-      </c>
-      <c r="D8">
-        <v>-0.65807700000000002</v>
-      </c>
-      <c r="E8">
-        <v>0.89210400000000001</v>
-      </c>
-      <c r="F8">
-        <v>-1.07447</v>
-      </c>
-      <c r="G8">
-        <v>1.21265</v>
-      </c>
-      <c r="H8" s="1">
-        <v>-3.4966900000000001</v>
-      </c>
-      <c r="I8" s="1">
-        <v>7.1499800000000002</v>
-      </c>
-      <c r="J8" s="1">
-        <v>-10.0669</v>
+      <c r="C8" s="2">
+        <v>2.06386</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2.3028400000000002</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.9391700000000001</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.4181299999999999</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.94008899999999995</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2149.9699999999998</v>
+      </c>
+      <c r="I8" s="2">
+        <v>869.51700000000005</v>
+      </c>
+      <c r="J8" s="2">
+        <v>210.982</v>
       </c>
       <c r="K8" s="2">
-        <v>12.350899999999999</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-14.0929</v>
+        <v>81.089600000000004</v>
+      </c>
+      <c r="L8" s="2">
+        <v>176.154</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2467,35 +2467,35 @@
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>0.40864600000000001</v>
-      </c>
-      <c r="D9">
-        <v>-0.73898299999999995</v>
-      </c>
-      <c r="E9">
-        <v>1.0018</v>
-      </c>
-      <c r="F9">
-        <v>-1.2066300000000001</v>
-      </c>
-      <c r="G9">
-        <v>1.3618699999999999</v>
-      </c>
-      <c r="H9" s="1">
-        <v>-3.9267599999999998</v>
-      </c>
-      <c r="I9" s="1">
-        <v>8.0293100000000006</v>
-      </c>
-      <c r="J9" s="1">
-        <v>-11.305199999999999</v>
-      </c>
-      <c r="K9" s="1">
-        <v>13.8704</v>
-      </c>
-      <c r="L9" s="1">
-        <v>-15.827299999999999</v>
+      <c r="C9" s="2">
+        <v>2.2733599999999998</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2.5362200000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2.1356999999999999</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.56185</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.0353600000000001</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2367.56</v>
+      </c>
+      <c r="I9" s="2">
+        <v>957.63699999999994</v>
+      </c>
+      <c r="J9" s="2">
+        <v>232.364</v>
+      </c>
+      <c r="K9" s="2">
+        <v>89.307599999999994</v>
+      </c>
+      <c r="L9" s="2">
+        <v>194.006</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2506,35 +2506,35 @@
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
-        <v>0.43766300000000002</v>
-      </c>
-      <c r="D10">
-        <v>-0.79145799999999999</v>
-      </c>
-      <c r="E10">
-        <v>1.0729500000000001</v>
-      </c>
-      <c r="F10">
-        <v>-1.29233</v>
-      </c>
-      <c r="G10">
-        <v>1.4585900000000001</v>
-      </c>
-      <c r="H10" s="1">
-        <v>-4.2056300000000002</v>
-      </c>
-      <c r="I10" s="1">
-        <v>8.5995100000000004</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-12.108000000000001</v>
-      </c>
-      <c r="K10" s="1">
-        <v>14.855499999999999</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-16.951499999999999</v>
+      <c r="C10" s="2">
+        <v>2.42658</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.7071499999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.27963</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.6671199999999999</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.10514</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2527.16</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1022.18</v>
+      </c>
+      <c r="J10" s="2">
+        <v>248.024</v>
+      </c>
+      <c r="K10" s="2">
+        <v>95.326499999999996</v>
+      </c>
+      <c r="L10" s="2">
+        <v>207.08199999999999</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -2545,35 +2545,35 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
-        <v>0.45217000000000002</v>
-      </c>
-      <c r="D11">
-        <v>-0.81769000000000003</v>
-      </c>
-      <c r="E11">
-        <v>1.1085</v>
-      </c>
-      <c r="F11">
-        <v>-1.33514</v>
+      <c r="C11" s="2">
+        <v>2.5200900000000002</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2.81142</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.3674400000000002</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.73133</v>
       </c>
       <c r="G11" s="2">
-        <v>1.5068999999999999</v>
-      </c>
-      <c r="H11" s="1">
-        <v>-4.34497</v>
-      </c>
-      <c r="I11" s="1">
-        <v>8.8844499999999993</v>
-      </c>
-      <c r="J11" s="1">
-        <v>-12.5092</v>
-      </c>
-      <c r="K11" s="1">
-        <v>15.3475</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-17.512799999999999</v>
+        <v>1.14771</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2624.48</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1061.55</v>
+      </c>
+      <c r="J11" s="2">
+        <v>257.577</v>
+      </c>
+      <c r="K11" s="2">
+        <v>98.998199999999997</v>
+      </c>
+      <c r="L11" s="2">
+        <v>215.05799999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -2584,35 +2584,35 @@
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>0.453378</v>
-      </c>
-      <c r="D12">
-        <v>-0.81986899999999996</v>
-      </c>
-      <c r="E12">
-        <v>1.11144</v>
-      </c>
-      <c r="F12">
-        <v>-1.33866</v>
-      </c>
-      <c r="G12">
-        <v>1.51084</v>
-      </c>
-      <c r="H12" s="1">
-        <v>-4.3564499999999997</v>
-      </c>
-      <c r="I12" s="1">
-        <v>8.9079599999999992</v>
-      </c>
-      <c r="J12" s="1">
-        <v>-12.542199999999999</v>
-      </c>
-      <c r="K12" s="1">
-        <v>15.3878</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-17.558399999999999</v>
+      <c r="C12" s="2">
+        <v>2.5515599999999998</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.84646</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2.3969499999999999</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.75291</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.16201</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2657.14</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1074.78</v>
+      </c>
+      <c r="J12" s="2">
+        <v>260.78800000000001</v>
+      </c>
+      <c r="K12" s="2">
+        <v>100.232</v>
+      </c>
+      <c r="L12" s="2">
+        <v>217.738</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -2623,35 +2623,35 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>0.44249500000000003</v>
-      </c>
-      <c r="D13">
-        <v>-0.80018299999999998</v>
-      </c>
-      <c r="E13">
-        <v>1.08474</v>
-      </c>
-      <c r="F13">
-        <v>-1.3064800000000001</v>
-      </c>
-      <c r="G13">
-        <v>1.47448</v>
-      </c>
-      <c r="H13" s="1">
-        <v>-4.2517300000000002</v>
-      </c>
-      <c r="I13" s="1">
-        <v>8.6938800000000001</v>
-      </c>
-      <c r="J13" s="1">
-        <v>-12.2407</v>
-      </c>
-      <c r="K13" s="1">
-        <v>15.0177</v>
-      </c>
-      <c r="L13" s="1">
-        <v>-17.1357</v>
+      <c r="C13" s="2">
+        <v>2.5199400000000001</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.81142</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.3674400000000002</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.73133</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.14771</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2624.62</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1061.55</v>
+      </c>
+      <c r="J13" s="2">
+        <v>257.577</v>
+      </c>
+      <c r="K13" s="2">
+        <v>98.998199999999997</v>
+      </c>
+      <c r="L13" s="2">
+        <v>215.05799999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -2662,35 +2662,35 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>0.42073100000000002</v>
-      </c>
-      <c r="D14">
-        <v>-0.76082000000000005</v>
-      </c>
-      <c r="E14">
-        <v>1.0313699999999999</v>
-      </c>
-      <c r="F14">
-        <v>-1.24217</v>
-      </c>
-      <c r="G14">
-        <v>1.4018699999999999</v>
-      </c>
-      <c r="H14" s="1">
-        <v>-4.0424600000000002</v>
-      </c>
-      <c r="I14" s="1">
-        <v>8.2660199999999993</v>
-      </c>
-      <c r="J14" s="1">
-        <v>-11.6381</v>
-      </c>
-      <c r="K14" s="1">
-        <v>14.2782</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-16.291499999999999</v>
+      <c r="C14" s="2">
+        <v>2.42611</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2.7071499999999999</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.27963</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.6671199999999999</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.10514</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2527.63</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1022.18</v>
+      </c>
+      <c r="J14" s="2">
+        <v>248.024</v>
+      </c>
+      <c r="K14" s="2">
+        <v>95.326499999999996</v>
+      </c>
+      <c r="L14" s="2">
+        <v>207.08099999999999</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -2701,35 +2701,35 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>0.38929599999999998</v>
-      </c>
-      <c r="D15">
-        <v>-0.70396899999999996</v>
-      </c>
-      <c r="E15">
-        <v>0.95428500000000005</v>
-      </c>
-      <c r="F15">
-        <v>-1.1493100000000001</v>
-      </c>
-      <c r="G15">
-        <v>1.29704</v>
-      </c>
-      <c r="H15" s="1">
-        <v>-3.7402799999999998</v>
-      </c>
-      <c r="I15" s="1">
-        <v>7.64818</v>
-      </c>
-      <c r="J15" s="1">
-        <v>-10.7681</v>
-      </c>
-      <c r="K15" s="1">
-        <v>13.210599999999999</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-15.0731</v>
+      <c r="C15" s="2">
+        <v>2.2726999999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.5362200000000001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2.1356999999999999</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.56185</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.0353600000000001</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2368.2399999999998</v>
+      </c>
+      <c r="I15" s="2">
+        <v>957.63699999999994</v>
+      </c>
+      <c r="J15" s="2">
+        <v>232.364</v>
+      </c>
+      <c r="K15" s="2">
+        <v>89.307599999999994</v>
+      </c>
+      <c r="L15" s="2">
+        <v>194.006</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -2740,35 +2740,35 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16">
-        <v>0.34939799999999999</v>
-      </c>
-      <c r="D16">
-        <v>-0.63181600000000004</v>
-      </c>
-      <c r="E16">
-        <v>0.85646500000000003</v>
-      </c>
-      <c r="F16">
-        <v>-1.03148</v>
-      </c>
-      <c r="G16">
-        <v>1.1640299999999999</v>
-      </c>
-      <c r="H16" s="1">
-        <v>-3.35683</v>
-      </c>
-      <c r="I16" s="1">
-        <v>6.8641300000000003</v>
-      </c>
-      <c r="J16" s="1">
-        <v>-9.66418</v>
+      <c r="C16" s="2">
+        <v>2.06359</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2.3028400000000002</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.9391700000000001</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.4181299999999999</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.94008899999999995</v>
+      </c>
+      <c r="H16" s="2">
+        <v>2150.25</v>
+      </c>
+      <c r="I16" s="2">
+        <v>869.51700000000005</v>
+      </c>
+      <c r="J16" s="2">
+        <v>210.982</v>
       </c>
       <c r="K16" s="2">
-        <v>11.8561</v>
-      </c>
-      <c r="L16" s="1">
-        <v>-13.527200000000001</v>
+        <v>81.089600000000004</v>
+      </c>
+      <c r="L16" s="2">
+        <v>176.154</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -2779,35 +2779,35 @@
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>0.30224600000000001</v>
-      </c>
-      <c r="D17">
-        <v>-0.54654800000000003</v>
-      </c>
-      <c r="E17">
-        <v>0.74087000000000003</v>
-      </c>
-      <c r="F17">
-        <v>-0.89224700000000001</v>
-      </c>
-      <c r="G17">
-        <v>1.0068900000000001</v>
-      </c>
-      <c r="H17" s="1">
-        <v>-2.9037299999999999</v>
-      </c>
-      <c r="I17" s="1">
-        <v>5.9376499999999997</v>
-      </c>
-      <c r="J17" s="1">
-        <v>-8.3597000000000001</v>
+      <c r="C17" s="2">
+        <v>1.8038099999999999</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2.01275</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.6949000000000001</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.23949</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.82166799999999995</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1879.16</v>
+      </c>
+      <c r="I17" s="2">
+        <v>759.98500000000001</v>
+      </c>
+      <c r="J17" s="2">
+        <v>184.405</v>
       </c>
       <c r="K17" s="2">
-        <v>10.255599999999999</v>
-      </c>
-      <c r="L17" s="1">
-        <v>-11.700900000000001</v>
+        <v>70.874899999999997</v>
+      </c>
+      <c r="L17" s="2">
+        <v>153.964</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -2818,35 +2818,35 @@
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18">
-        <v>0.24904999999999999</v>
-      </c>
-      <c r="D18">
-        <v>-0.45035199999999997</v>
-      </c>
-      <c r="E18">
-        <v>0.61046599999999995</v>
-      </c>
-      <c r="F18">
-        <v>-0.73518700000000003</v>
-      </c>
-      <c r="G18">
-        <v>0.82963100000000001</v>
-      </c>
-      <c r="H18" s="1">
-        <v>-2.3925999999999998</v>
-      </c>
-      <c r="I18" s="3">
-        <v>4.8925000000000001</v>
-      </c>
-      <c r="J18" s="1">
-        <v>-6.8881699999999997</v>
-      </c>
-      <c r="K18" s="1">
-        <v>8.4502299999999995</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-9.6409599999999998</v>
+      <c r="C18" s="2">
+        <v>1.4995799999999999</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1.6731100000000001</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1.40889</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.03033</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.68301500000000004</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1561.85</v>
+      </c>
+      <c r="I18" s="2">
+        <v>631.74099999999999</v>
+      </c>
+      <c r="J18" s="2">
+        <v>153.28700000000001</v>
+      </c>
+      <c r="K18" s="2">
+        <v>58.914999999999999</v>
+      </c>
+      <c r="L18" s="2">
+        <v>127.983</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -2857,35 +2857,35 @@
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19">
-        <v>0.19101899999999999</v>
-      </c>
-      <c r="D19">
-        <v>-0.34541300000000003</v>
-      </c>
-      <c r="E19">
-        <v>0.46821400000000002</v>
-      </c>
-      <c r="F19">
-        <v>-0.56386599999999998</v>
-      </c>
-      <c r="G19">
-        <v>0.63629199999999997</v>
-      </c>
-      <c r="H19" s="1">
-        <v>-1.8350599999999999</v>
-      </c>
-      <c r="I19" s="1">
-        <v>3.7524199999999999</v>
-      </c>
-      <c r="J19" s="1">
-        <v>-5.2830300000000001</v>
-      </c>
-      <c r="K19" s="1">
-        <v>6.4810100000000004</v>
-      </c>
-      <c r="L19" s="1">
-        <v>-7.3941600000000003</v>
+      <c r="C19" s="2">
+        <v>1.15831</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.29227</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1.08819</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0.79580399999999996</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.52754299999999998</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1206.22</v>
+      </c>
+      <c r="I19" s="2">
+        <v>487.94099999999997</v>
+      </c>
+      <c r="J19" s="2">
+        <v>118.395</v>
+      </c>
+      <c r="K19" s="2">
+        <v>45.5045</v>
+      </c>
+      <c r="L19" s="2">
+        <v>98.851100000000002</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -2896,35 +2896,35 @@
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20">
-        <v>0.129361</v>
-      </c>
-      <c r="D20">
-        <v>-0.23391799999999999</v>
-      </c>
-      <c r="E20">
-        <v>0.31707800000000003</v>
-      </c>
-      <c r="F20">
-        <v>-0.38185200000000002</v>
-      </c>
-      <c r="G20">
-        <v>0.430894</v>
-      </c>
-      <c r="H20" s="1">
-        <v>-1.24271</v>
-      </c>
-      <c r="I20" s="1">
-        <v>2.5411600000000001</v>
-      </c>
-      <c r="J20" s="1">
-        <v>-3.57768</v>
-      </c>
-      <c r="K20" s="1">
-        <v>4.3889300000000002</v>
-      </c>
-      <c r="L20" s="1">
-        <v>-5.0072599999999996</v>
+      <c r="C20" s="2">
+        <v>0.78844999999999998</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.879606</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.74069799999999997</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0.54167900000000002</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.35908200000000001</v>
+      </c>
+      <c r="H20" s="2">
+        <v>820.99599999999998</v>
+      </c>
+      <c r="I20" s="2">
+        <v>332.12599999999998</v>
+      </c>
+      <c r="J20" s="2">
+        <v>80.587900000000005</v>
+      </c>
+      <c r="K20" s="2">
+        <v>30.973500000000001</v>
+      </c>
+      <c r="L20" s="2">
+        <v>67.284899999999993</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -2935,35 +2935,35 @@
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>6.5284700000000001E-2</v>
-      </c>
-      <c r="D21">
-        <v>-0.118052</v>
-      </c>
-      <c r="E21">
-        <v>0.16002</v>
-      </c>
-      <c r="F21">
-        <v>-0.19270799999999999</v>
-      </c>
-      <c r="G21">
-        <v>0.21745600000000001</v>
-      </c>
-      <c r="H21" s="1">
-        <v>-0.62715399999999999</v>
-      </c>
-      <c r="I21" s="1">
-        <v>1.28244</v>
-      </c>
-      <c r="J21" s="1">
-        <v>-1.8055399999999999</v>
-      </c>
-      <c r="K21" s="1">
-        <v>2.2149399999999999</v>
-      </c>
-      <c r="L21" s="1">
-        <v>-2.5269699999999999</v>
+      <c r="C21" s="2">
+        <v>0.399142</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.44528499999999999</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.37496499999999999</v>
+      </c>
+      <c r="F21" s="2">
+        <v>0.27421499999999999</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.181779</v>
+      </c>
+      <c r="H21" s="2">
+        <v>415.608</v>
+      </c>
+      <c r="I21" s="2">
+        <v>168.13300000000001</v>
+      </c>
+      <c r="J21" s="2">
+        <v>40.796199999999999</v>
+      </c>
+      <c r="K21" s="2">
+        <v>15.6798</v>
+      </c>
+      <c r="L21" s="2">
+        <v>34.061799999999998</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2974,34 +2974,34 @@
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
         <v>0</v>
       </c>
     </row>
